--- a/RUDN/Importance/Varible_f_class_in_South-Eastern Asia.xlsx
+++ b/RUDN/Importance/Varible_f_class_in_South-Eastern Asia.xlsx
@@ -937,10 +937,10 @@
     <t>Age population, age 19, male, interpolated</t>
   </si>
   <si>
+    <t>Population, female (% of total)</t>
+  </si>
+  <si>
     <t>Population, male (% of total)</t>
-  </si>
-  <si>
-    <t>Population, female (% of total)</t>
   </si>
   <si>
     <t>Age population, age 21, female, interpolated</t>
@@ -1623,7 +1623,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>8072520.422594694</v>
+        <v>8072520.422779246</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1656,7 +1656,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>65286.66621363923</v>
+        <v>65286.66621362892</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1678,7 +1678,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>637.2824913603181</v>
+        <v>637.282491360316</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1722,7 +1722,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>407.8101907426108</v>
+        <v>407.8101907424991</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>328.8591782866164</v>
+        <v>328.8591782866156</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1744,7 +1744,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>323.4955581375333</v>
+        <v>323.4955581375331</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1755,7 +1755,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>323.495064541485</v>
+        <v>323.4950645414853</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1766,7 +1766,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>323.4947818018923</v>
+        <v>323.4947818018919</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>323.4835324676055</v>
+        <v>323.4835324676058</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>322.7290788535489</v>
+        <v>322.7290788535492</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>321.2394476117775</v>
+        <v>321.2394476117776</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>318.5720386092623</v>
+        <v>318.5720386092625</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1854,7 +1854,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>272.0766073840799</v>
+        <v>272.0766073840581</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1865,7 +1865,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>191.357493584283</v>
+        <v>191.3574935842832</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1876,7 +1876,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>191.357493584283</v>
+        <v>191.3574935842832</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1887,7 +1887,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>190.5474836612219</v>
+        <v>190.5474836612218</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1898,7 +1898,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>186.3229865225198</v>
+        <v>186.32298652252</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1931,7 +1931,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>174.6712035630559</v>
+        <v>174.6712035630555</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1975,7 +1975,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>151.0385375486649</v>
+        <v>151.0385375486644</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1997,7 +1997,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>136.1264178272594</v>
+        <v>136.1264178272592</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>127.3888640971124</v>
+        <v>127.3888640971126</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -2030,7 +2030,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>127.3888640971124</v>
+        <v>127.3888640971126</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -2041,7 +2041,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>124.3499207158978</v>
+        <v>124.3499207158984</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>121.164237495675</v>
+        <v>121.164237495677</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -2107,7 +2107,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>105.049529718535</v>
+        <v>105.0495297185345</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -2151,7 +2151,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>97.55486156858152</v>
+        <v>97.55486156858156</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -2184,7 +2184,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>91.20278891903719</v>
+        <v>91.20278891903727</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -2195,7 +2195,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>88.84063917481065</v>
+        <v>88.84063917481076</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -2228,7 +2228,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>87.65965172035175</v>
+        <v>87.65965172035202</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>86.81059534688838</v>
+        <v>86.81059534688796</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -2261,7 +2261,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>84.11991513646871</v>
+        <v>84.11991513646824</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -2272,7 +2272,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>83.98781921332377</v>
+        <v>83.98781921332412</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -2327,7 +2327,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>79.81363410904055</v>
+        <v>79.81363410904115</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>79.79925412153364</v>
+        <v>79.79925412153626</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>78.01404587166709</v>
+        <v>78.01404587166891</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -2382,7 +2382,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>77.78916273896193</v>
+        <v>77.78916273896202</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -2393,7 +2393,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>77.78916273896193</v>
+        <v>77.78916273896202</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>76.81219466175214</v>
+        <v>76.81219466175222</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -2426,7 +2426,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>75.10063279723826</v>
+        <v>75.10063279723765</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -2437,7 +2437,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>72.58942409437539</v>
+        <v>72.58942409437722</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -2448,7 +2448,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>71.97288940115725</v>
+        <v>71.97288940115747</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -2459,7 +2459,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>71.86497197896836</v>
+        <v>71.86497197896838</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -2470,7 +2470,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>71.37885940866391</v>
+        <v>71.37885940866418</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -2481,7 +2481,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>71.26405540465443</v>
+        <v>71.26405540465478</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -2492,7 +2492,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>71.21877386450987</v>
+        <v>71.21877386451001</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -2525,7 +2525,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>67.72863114778289</v>
+        <v>67.72863114778291</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -2547,7 +2547,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>66.863048562803</v>
+        <v>66.86304856280348</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -2558,7 +2558,7 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>66.57298133716102</v>
+        <v>66.57298133716084</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -2580,7 +2580,7 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>65.37912244271044</v>
+        <v>65.3791224427106</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -2591,7 +2591,7 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>65.36735015841899</v>
+        <v>65.367350158422</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>62.3591764420514</v>
+        <v>62.3591764420512</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -2613,7 +2613,7 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>61.74089023673467</v>
+        <v>61.74089023673498</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -2657,7 +2657,7 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>59.34325436522776</v>
+        <v>59.3432543652273</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>58.1687132433003</v>
+        <v>58.16871324330303</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -2701,7 +2701,7 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>56.06044161764761</v>
+        <v>56.06044161764776</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>51.46817554484534</v>
+        <v>51.46817554484561</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -2723,7 +2723,7 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>51.44975853473915</v>
+        <v>51.44975853473937</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -2734,7 +2734,7 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>51.39998259781053</v>
+        <v>51.3999825978114</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -2745,7 +2745,7 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>49.00781023085354</v>
+        <v>49.00781023085355</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -2756,7 +2756,7 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>48.95734347051631</v>
+        <v>48.95734347051626</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>48.62169388810606</v>
+        <v>48.62169388810522</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>47.39799634593228</v>
+        <v>47.39799634593259</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -2822,7 +2822,7 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>45.31840443399707</v>
+        <v>45.31840443399675</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -2833,7 +2833,7 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>44.70927329027668</v>
+        <v>44.70927329027636</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -2844,7 +2844,7 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>44.61950432624163</v>
+        <v>44.61950432624182</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -2943,7 +2943,7 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>39.96361356371334</v>
+        <v>39.96361356371337</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>39.9221649910566</v>
+        <v>39.92216499105661</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>39.02555310927298</v>
+        <v>39.02555310927321</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>38.71890700609363</v>
+        <v>38.71890700609589</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -3031,7 +3031,7 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>38.52855614208256</v>
+        <v>38.5285561420827</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -3042,7 +3042,7 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>38.28598249962464</v>
+        <v>38.28598249962462</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>37.34906313110833</v>
+        <v>37.34906313110834</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -3130,7 +3130,7 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>33.61890486404291</v>
+        <v>33.6189048640429</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -3152,7 +3152,7 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>32.2210055791842</v>
+        <v>32.22100557918436</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -3163,7 +3163,7 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>28.83082709294931</v>
+        <v>28.83082709294969</v>
       </c>
       <c r="C142">
         <v>0</v>
@@ -3174,7 +3174,7 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>28.08058898661108</v>
+        <v>28.08058898661106</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -3196,7 +3196,7 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>27.70194516705583</v>
+        <v>27.70194516705581</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -3218,7 +3218,7 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>27.25595821381339</v>
+        <v>27.25595821381343</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -3229,7 +3229,7 @@
         <v>148</v>
       </c>
       <c r="B148">
-        <v>27.20430031630397</v>
+        <v>27.20430031630394</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -3284,7 +3284,7 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>26.75900841709587</v>
+        <v>26.75900841709591</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -3295,7 +3295,7 @@
         <v>154</v>
       </c>
       <c r="B154">
-        <v>26.60420961619261</v>
+        <v>26.60420961619258</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -3306,7 +3306,7 @@
         <v>155</v>
       </c>
       <c r="B155">
-        <v>26.28431878689967</v>
+        <v>26.2843187868997</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -3328,7 +3328,7 @@
         <v>157</v>
       </c>
       <c r="B157">
-        <v>26.20013992669456</v>
+        <v>26.20013992669464</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -3372,7 +3372,7 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>25.86513567642101</v>
+        <v>25.86513567642106</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -3383,7 +3383,7 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <v>25.85910133131294</v>
+        <v>25.85910133131289</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -3394,7 +3394,7 @@
         <v>163</v>
       </c>
       <c r="B163">
-        <v>25.81827707915178</v>
+        <v>25.81827707915168</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -3405,7 +3405,7 @@
         <v>164</v>
       </c>
       <c r="B164">
-        <v>25.73544857869209</v>
+        <v>25.7354485786921</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -3427,7 +3427,7 @@
         <v>166</v>
       </c>
       <c r="B166">
-        <v>25.23120992130091</v>
+        <v>25.23120992130089</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -3482,7 +3482,7 @@
         <v>171</v>
       </c>
       <c r="B171">
-        <v>21.70198500815547</v>
+        <v>21.70198500815549</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -3504,7 +3504,7 @@
         <v>173</v>
       </c>
       <c r="B173">
-        <v>20.85172187608723</v>
+        <v>20.85172187608727</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>178</v>
       </c>
       <c r="B178">
-        <v>20.72781273079254</v>
+        <v>20.72781273079253</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -3570,7 +3570,7 @@
         <v>179</v>
       </c>
       <c r="B179">
-        <v>20.7275952888736</v>
+        <v>20.72759528887361</v>
       </c>
       <c r="C179">
         <v>0</v>
@@ -3603,7 +3603,7 @@
         <v>182</v>
       </c>
       <c r="B182">
-        <v>20.63020392206406</v>
+        <v>20.63020392206407</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -3669,7 +3669,7 @@
         <v>188</v>
       </c>
       <c r="B188">
-        <v>20.36548867283868</v>
+        <v>20.36548867283869</v>
       </c>
       <c r="C188">
         <v>0</v>
@@ -3680,7 +3680,7 @@
         <v>189</v>
       </c>
       <c r="B189">
-        <v>20.34863056271003</v>
+        <v>20.34863056271005</v>
       </c>
       <c r="C189">
         <v>0</v>
@@ -3702,7 +3702,7 @@
         <v>191</v>
       </c>
       <c r="B191">
-        <v>20.22056684763148</v>
+        <v>20.22056684763149</v>
       </c>
       <c r="C191">
         <v>0</v>
@@ -3713,7 +3713,7 @@
         <v>192</v>
       </c>
       <c r="B192">
-        <v>20.22056684763148</v>
+        <v>20.22056684763149</v>
       </c>
       <c r="C192">
         <v>0</v>
@@ -3735,7 +3735,7 @@
         <v>194</v>
       </c>
       <c r="B194">
-        <v>19.45154174643651</v>
+        <v>19.45154174643757</v>
       </c>
       <c r="C194">
         <v>0</v>
@@ -3768,7 +3768,7 @@
         <v>197</v>
       </c>
       <c r="B197">
-        <v>19.22267462940653</v>
+        <v>19.22267462940652</v>
       </c>
       <c r="C197">
         <v>0</v>
@@ -3801,7 +3801,7 @@
         <v>200</v>
       </c>
       <c r="B200">
-        <v>18.39997736204794</v>
+        <v>18.39997736204793</v>
       </c>
       <c r="C200">
         <v>0</v>
@@ -3812,7 +3812,7 @@
         <v>201</v>
       </c>
       <c r="B201">
-        <v>18.39632546454364</v>
+        <v>18.39632546454365</v>
       </c>
       <c r="C201">
         <v>0</v>
@@ -3867,7 +3867,7 @@
         <v>206</v>
       </c>
       <c r="B206">
-        <v>18.22056696884005</v>
+        <v>18.22056696884006</v>
       </c>
       <c r="C206">
         <v>0</v>
@@ -3878,7 +3878,7 @@
         <v>207</v>
       </c>
       <c r="B207">
-        <v>18.21101793078575</v>
+        <v>18.21101793078576</v>
       </c>
       <c r="C207">
         <v>0</v>
@@ -4065,7 +4065,7 @@
         <v>224</v>
       </c>
       <c r="B224">
-        <v>16.840081569521</v>
+        <v>16.84008156952107</v>
       </c>
       <c r="C224">
         <v>0</v>
@@ -4087,7 +4087,7 @@
         <v>226</v>
       </c>
       <c r="B226">
-        <v>16.536170529336</v>
+        <v>16.53617052933641</v>
       </c>
       <c r="C226">
         <v>0</v>
@@ -4175,7 +4175,7 @@
         <v>234</v>
       </c>
       <c r="B234">
-        <v>15.45561874749221</v>
+        <v>15.4556187474922</v>
       </c>
       <c r="C234">
         <v>0</v>
@@ -4274,7 +4274,7 @@
         <v>243</v>
       </c>
       <c r="B243">
-        <v>15.10278935479115</v>
+        <v>15.10278935479117</v>
       </c>
       <c r="C243">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>250</v>
       </c>
       <c r="B250">
-        <v>14.66547197333311</v>
+        <v>14.6654719733331</v>
       </c>
       <c r="C250">
         <v>0</v>
@@ -4428,7 +4428,7 @@
         <v>257</v>
       </c>
       <c r="B257">
-        <v>14.36646343232625</v>
+        <v>14.36646343232624</v>
       </c>
       <c r="C257">
         <v>0</v>
@@ -4483,7 +4483,7 @@
         <v>262</v>
       </c>
       <c r="B262">
-        <v>14.13298865108841</v>
+        <v>14.1329886510884</v>
       </c>
       <c r="C262">
         <v>0</v>
@@ -4505,7 +4505,7 @@
         <v>264</v>
       </c>
       <c r="B264">
-        <v>13.97454304951111</v>
+        <v>13.97454304951112</v>
       </c>
       <c r="C264">
         <v>0</v>
@@ -4549,7 +4549,7 @@
         <v>268</v>
       </c>
       <c r="B268">
-        <v>13.82275997001708</v>
+        <v>13.82275997001707</v>
       </c>
       <c r="C268">
         <v>0</v>
@@ -4560,7 +4560,7 @@
         <v>269</v>
       </c>
       <c r="B269">
-        <v>13.77438258024746</v>
+        <v>13.77438258024747</v>
       </c>
       <c r="C269">
         <v>0</v>
@@ -4593,7 +4593,7 @@
         <v>272</v>
       </c>
       <c r="B272">
-        <v>13.68134209044652</v>
+        <v>13.68134209044653</v>
       </c>
       <c r="C272">
         <v>0</v>
@@ -4615,7 +4615,7 @@
         <v>274</v>
       </c>
       <c r="B274">
-        <v>13.67188783292117</v>
+        <v>13.67188783292116</v>
       </c>
       <c r="C274">
         <v>0</v>
@@ -4648,7 +4648,7 @@
         <v>277</v>
       </c>
       <c r="B277">
-        <v>13.55858495617909</v>
+        <v>13.55858495617902</v>
       </c>
       <c r="C277">
         <v>1e-05</v>
@@ -4670,7 +4670,7 @@
         <v>279</v>
       </c>
       <c r="B279">
-        <v>13.53169290166067</v>
+        <v>13.53169290166068</v>
       </c>
       <c r="C279">
         <v>1e-05</v>
@@ -4681,7 +4681,7 @@
         <v>280</v>
       </c>
       <c r="B280">
-        <v>13.44729524032598</v>
+        <v>13.44729524032599</v>
       </c>
       <c r="C280">
         <v>1e-05</v>
@@ -4692,7 +4692,7 @@
         <v>281</v>
       </c>
       <c r="B281">
-        <v>13.38895922847645</v>
+        <v>13.38895922847647</v>
       </c>
       <c r="C281">
         <v>1e-05</v>
@@ -4714,7 +4714,7 @@
         <v>283</v>
       </c>
       <c r="B283">
-        <v>13.24217854843307</v>
+        <v>13.24217854843306</v>
       </c>
       <c r="C283">
         <v>1e-05</v>
@@ -4747,7 +4747,7 @@
         <v>286</v>
       </c>
       <c r="B286">
-        <v>13.05732421859623</v>
+        <v>13.05732421859621</v>
       </c>
       <c r="C286">
         <v>1e-05</v>
@@ -4758,7 +4758,7 @@
         <v>287</v>
       </c>
       <c r="B287">
-        <v>12.92676456875711</v>
+        <v>12.92676456875712</v>
       </c>
       <c r="C287">
         <v>1e-05</v>
@@ -4780,7 +4780,7 @@
         <v>289</v>
       </c>
       <c r="B289">
-        <v>12.91654179842338</v>
+        <v>12.91654179842339</v>
       </c>
       <c r="C289">
         <v>1e-05</v>
@@ -4791,7 +4791,7 @@
         <v>290</v>
       </c>
       <c r="B290">
-        <v>12.77870361022665</v>
+        <v>12.7787036102266</v>
       </c>
       <c r="C290">
         <v>1e-05</v>
@@ -4802,7 +4802,7 @@
         <v>291</v>
       </c>
       <c r="B291">
-        <v>12.7776370714052</v>
+        <v>12.77763707140528</v>
       </c>
       <c r="C291">
         <v>1e-05</v>
@@ -4813,7 +4813,7 @@
         <v>292</v>
       </c>
       <c r="B292">
-        <v>12.77672685999428</v>
+        <v>12.77672685999432</v>
       </c>
       <c r="C292">
         <v>1e-05</v>
@@ -4835,7 +4835,7 @@
         <v>294</v>
       </c>
       <c r="B294">
-        <v>12.77294786348488</v>
+        <v>12.77294786348491</v>
       </c>
       <c r="C294">
         <v>1e-05</v>
@@ -4846,7 +4846,7 @@
         <v>295</v>
       </c>
       <c r="B295">
-        <v>12.77273778397129</v>
+        <v>12.77273778397126</v>
       </c>
       <c r="C295">
         <v>1e-05</v>
@@ -4868,7 +4868,7 @@
         <v>297</v>
       </c>
       <c r="B297">
-        <v>12.77135463794755</v>
+        <v>12.77135463794756</v>
       </c>
       <c r="C297">
         <v>1e-05</v>
@@ -4879,7 +4879,7 @@
         <v>298</v>
       </c>
       <c r="B298">
-        <v>12.77135463794755</v>
+        <v>12.77135463794756</v>
       </c>
       <c r="C298">
         <v>1e-05</v>
@@ -4934,7 +4934,7 @@
         <v>303</v>
       </c>
       <c r="B303">
-        <v>12.56903091315807</v>
+        <v>12.56903091315808</v>
       </c>
       <c r="C303">
         <v>1e-05</v>
@@ -4978,7 +4978,7 @@
         <v>307</v>
       </c>
       <c r="B307">
-        <v>12.30476675039695</v>
+        <v>12.30476675033063</v>
       </c>
       <c r="C307">
         <v>1e-05</v>
@@ -4989,7 +4989,7 @@
         <v>308</v>
       </c>
       <c r="B308">
-        <v>12.30476675033779</v>
+        <v>12.30476675032347</v>
       </c>
       <c r="C308">
         <v>1e-05</v>
@@ -5000,7 +5000,7 @@
         <v>309</v>
       </c>
       <c r="B309">
-        <v>12.18534795258209</v>
+        <v>12.18534795258208</v>
       </c>
       <c r="C309">
         <v>2e-05</v>
@@ -5011,7 +5011,7 @@
         <v>310</v>
       </c>
       <c r="B310">
-        <v>12.18506159524439</v>
+        <v>12.1850615952444</v>
       </c>
       <c r="C310">
         <v>2e-05</v>
@@ -5022,7 +5022,7 @@
         <v>311</v>
       </c>
       <c r="B311">
-        <v>11.96338401941062</v>
+        <v>11.96338401941063</v>
       </c>
       <c r="C311">
         <v>2e-05</v>
@@ -5033,7 +5033,7 @@
         <v>312</v>
       </c>
       <c r="B312">
-        <v>11.95203103827082</v>
+        <v>11.9520310382708</v>
       </c>
       <c r="C312">
         <v>2e-05</v>
@@ -5055,7 +5055,7 @@
         <v>314</v>
       </c>
       <c r="B314">
-        <v>11.92935929610555</v>
+        <v>11.92935929610547</v>
       </c>
       <c r="C314">
         <v>2e-05</v>
@@ -5066,7 +5066,7 @@
         <v>315</v>
       </c>
       <c r="B315">
-        <v>11.71020654886778</v>
+        <v>11.71020654886777</v>
       </c>
       <c r="C315">
         <v>2e-05</v>
@@ -5099,7 +5099,7 @@
         <v>318</v>
       </c>
       <c r="B318">
-        <v>11.4586726314377</v>
+        <v>11.45867263143766</v>
       </c>
       <c r="C318">
         <v>3e-05</v>
@@ -5275,7 +5275,7 @@
         <v>334</v>
       </c>
       <c r="B334">
-        <v>10.2985592712565</v>
+        <v>10.29855927125649</v>
       </c>
       <c r="C334">
         <v>8.000000000000001e-05</v>
@@ -5407,7 +5407,7 @@
         <v>346</v>
       </c>
       <c r="B346">
-        <v>9.376679809916761</v>
+        <v>9.376679809916764</v>
       </c>
       <c r="C346">
         <v>0.00017</v>
@@ -5451,7 +5451,7 @@
         <v>350</v>
       </c>
       <c r="B350">
-        <v>9.22888838439393</v>
+        <v>9.228888384393933</v>
       </c>
       <c r="C350">
         <v>0.00019</v>
@@ -5550,7 +5550,7 @@
         <v>359</v>
       </c>
       <c r="B359">
-        <v>8.171243143208914</v>
+        <v>8.171243143208926</v>
       </c>
       <c r="C359">
         <v>0.00048</v>
@@ -5572,7 +5572,7 @@
         <v>361</v>
       </c>
       <c r="B361">
-        <v>7.52416396238378</v>
+        <v>7.524163962383787</v>
       </c>
       <c r="C361">
         <v>0.00085</v>
@@ -5594,7 +5594,7 @@
         <v>363</v>
       </c>
       <c r="B363">
-        <v>7.425686083639703</v>
+        <v>7.425686083639721</v>
       </c>
       <c r="C363">
         <v>0.0009300000000000001</v>
@@ -5605,7 +5605,7 @@
         <v>364</v>
       </c>
       <c r="B364">
-        <v>7.39051085825727</v>
+        <v>7.390510858257291</v>
       </c>
       <c r="C364">
         <v>0.00096</v>
@@ -5627,7 +5627,7 @@
         <v>366</v>
       </c>
       <c r="B366">
-        <v>7.231413455992315</v>
+        <v>7.231413455992332</v>
       </c>
       <c r="C366">
         <v>0.0011</v>
@@ -5726,7 +5726,7 @@
         <v>375</v>
       </c>
       <c r="B375">
-        <v>6.765547854301153</v>
+        <v>6.765547854301154</v>
       </c>
       <c r="C375">
         <v>0.00167</v>
@@ -5748,7 +5748,7 @@
         <v>377</v>
       </c>
       <c r="B377">
-        <v>6.710701897554817</v>
+        <v>6.710701897554871</v>
       </c>
       <c r="C377">
         <v>0.00176</v>
@@ -5759,7 +5759,7 @@
         <v>378</v>
       </c>
       <c r="B378">
-        <v>6.710428083070687</v>
+        <v>6.710428083070672</v>
       </c>
       <c r="C378">
         <v>0.00176</v>
@@ -5781,7 +5781,7 @@
         <v>380</v>
       </c>
       <c r="B380">
-        <v>6.557329385584345</v>
+        <v>6.557329385584346</v>
       </c>
       <c r="C380">
         <v>0.00202</v>
@@ -5814,7 +5814,7 @@
         <v>383</v>
       </c>
       <c r="B383">
-        <v>6.439719345515099</v>
+        <v>6.439719345515087</v>
       </c>
       <c r="C383">
         <v>0.00224</v>
@@ -5825,7 +5825,7 @@
         <v>384</v>
       </c>
       <c r="B384">
-        <v>6.343908609937583</v>
+        <v>6.343908609937593</v>
       </c>
       <c r="C384">
         <v>0.00244</v>
@@ -5891,7 +5891,7 @@
         <v>390</v>
       </c>
       <c r="B390">
-        <v>6.152125253901393</v>
+        <v>6.152125253901398</v>
       </c>
       <c r="C390">
         <v>0.0029</v>
@@ -5924,7 +5924,7 @@
         <v>393</v>
       </c>
       <c r="B393">
-        <v>6.02849376255796</v>
+        <v>6.028493762557964</v>
       </c>
       <c r="C393">
         <v>0.00325</v>
@@ -5979,7 +5979,7 @@
         <v>398</v>
       </c>
       <c r="B398">
-        <v>5.70072901454373</v>
+        <v>5.700729014543738</v>
       </c>
       <c r="C398">
         <v>0.00437</v>
@@ -6012,7 +6012,7 @@
         <v>401</v>
       </c>
       <c r="B401">
-        <v>5.383836492739626</v>
+        <v>5.383836492739617</v>
       </c>
       <c r="C401">
         <v>0.00583</v>
@@ -6078,7 +6078,7 @@
         <v>407</v>
       </c>
       <c r="B407">
-        <v>5.054846766180677</v>
+        <v>5.054846766180668</v>
       </c>
       <c r="C407">
         <v>0.00788</v>
@@ -6089,7 +6089,7 @@
         <v>408</v>
       </c>
       <c r="B408">
-        <v>4.969034431623648</v>
+        <v>4.969034431623631</v>
       </c>
       <c r="C408">
         <v>0.008529999999999999</v>
